--- a/notebooks/COQ4/input/COQ4_COQ10D7_individuals.xlsx
+++ b/notebooks/COQ4/input/COQ4_COQ10D7_individuals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/COQ4/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29AA9EF0-724F-E246-B21C-8DE225520EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC4BC60-B75C-D64C-A38D-26E17939A2C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9300" yWindow="6140" windowWidth="49680" windowHeight="21180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4500" yWindow="3880" windowWidth="32080" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="345">
   <si>
     <t>PMID</t>
   </si>
@@ -773,12 +773,6 @@
     <t>P5M11D</t>
   </si>
   <si>
-    <t xml:space="preserve">Hyperglycemia </t>
-  </si>
-  <si>
-    <t>HP:0003074</t>
-  </si>
-  <si>
     <t>Hyperammonemia</t>
   </si>
   <si>
@@ -798,13 +792,289 @@
   </si>
   <si>
     <t>P1Y</t>
+  </si>
+  <si>
+    <t>PMID:28540186</t>
+  </si>
+  <si>
+    <t>Novel recessive mutations in COQ4 cause severe infantile cardiomyopathy and encephalopathy associated with CoQ10 deficiency</t>
+  </si>
+  <si>
+    <t>Case presentation</t>
+  </si>
+  <si>
+    <t>Biventricular hypertrophy</t>
+  </si>
+  <si>
+    <t>HP:0200128</t>
+  </si>
+  <si>
+    <t>Cardiomegaly</t>
+  </si>
+  <si>
+    <t>HP:0001640</t>
+  </si>
+  <si>
+    <t>P5D</t>
+  </si>
+  <si>
+    <t>Gastroesophageal reflux</t>
+  </si>
+  <si>
+    <t>HP:0002020</t>
+  </si>
+  <si>
+    <t>Acidosis</t>
+  </si>
+  <si>
+    <t>HP:0001941</t>
+  </si>
+  <si>
+    <t>Mitochondrial swelling</t>
+  </si>
+  <si>
+    <t>HP:0030774</t>
+  </si>
+  <si>
+    <t>c.23_33del</t>
+  </si>
+  <si>
+    <t>c.311G&gt;T</t>
+  </si>
+  <si>
+    <t>NP_057119.3:p.(Val8AlafsTer19);NP_057119.3:p.(Arg104Leu);second variant c.356C&gt;T (NP_057119.3:p.(Pro119Leu)) also identified on same haplotype</t>
+  </si>
+  <si>
+    <t>PMID:30847826</t>
+  </si>
+  <si>
+    <t>COQ4 mutation leads to childhood-onset ataxia improved by CoQ1O administration</t>
+  </si>
+  <si>
+    <t>index case</t>
+  </si>
+  <si>
+    <t>P26Y</t>
+  </si>
+  <si>
+    <t>Gait disturbance</t>
+  </si>
+  <si>
+    <t>HP:0001288</t>
+  </si>
+  <si>
+    <t>P16Y</t>
+  </si>
+  <si>
+    <t>Focal-onset seizure</t>
+  </si>
+  <si>
+    <t>HP:0007359</t>
+  </si>
+  <si>
+    <t>Dysarthria</t>
+  </si>
+  <si>
+    <t>HP:0001260</t>
+  </si>
+  <si>
+    <t>Proximal muscle weakness in lower limbs</t>
+  </si>
+  <si>
+    <t>HP:0008994</t>
+  </si>
+  <si>
+    <t>Dysdiadochokinesis</t>
+  </si>
+  <si>
+    <t>HP:0002075</t>
+  </si>
+  <si>
+    <t>Babinski sign</t>
+  </si>
+  <si>
+    <t>HP:0003487</t>
+  </si>
+  <si>
+    <t>HP:0030890</t>
+  </si>
+  <si>
+    <t>Hyperintensity of cerebral white matter on MRI</t>
+  </si>
+  <si>
+    <t>sister</t>
+  </si>
+  <si>
+    <t>P27Y</t>
+  </si>
+  <si>
+    <t>c.164G&gt;T</t>
+  </si>
+  <si>
+    <t>NP_057119.3:p.(Gly55Val)</t>
+  </si>
+  <si>
+    <t>Mental deterioration</t>
+  </si>
+  <si>
+    <t>HP:0001268</t>
+  </si>
+  <si>
+    <t>Young adult onset</t>
+  </si>
+  <si>
+    <t>PMID:30225196</t>
+  </si>
+  <si>
+    <t>Coenzyme Q10 deficiency due to a COQ4 gene defect causes childhood-onset spinocerebellar ataxia and stroke-like episodes</t>
+  </si>
+  <si>
+    <t>Patient 1 (V-3)</t>
+  </si>
+  <si>
+    <t>Patient 2 (V-4)</t>
+  </si>
+  <si>
+    <t>P15Y</t>
+  </si>
+  <si>
+    <t>Delayed speech and language development</t>
+  </si>
+  <si>
+    <t>HP:0000750</t>
+  </si>
+  <si>
+    <t>Tremor</t>
+  </si>
+  <si>
+    <t>HP:0001337</t>
+  </si>
+  <si>
+    <t>Glioma</t>
+  </si>
+  <si>
+    <t>HP:0009733</t>
+  </si>
+  <si>
+    <t>P10Y</t>
+  </si>
+  <si>
+    <t>Spastic tetraparesis</t>
+  </si>
+  <si>
+    <t>HP:0001285</t>
+  </si>
+  <si>
+    <t>Intellectual disability</t>
+  </si>
+  <si>
+    <t>HP:0001249</t>
+  </si>
+  <si>
+    <t>P14Y</t>
+  </si>
+  <si>
+    <t>P9Y</t>
+  </si>
+  <si>
+    <t>Stroke-like episode</t>
+  </si>
+  <si>
+    <t>HP:0002401</t>
+  </si>
+  <si>
+    <t>c.230C&gt;T</t>
+  </si>
+  <si>
+    <t>NP_057119.3:p.(Thr77Ile)</t>
+  </si>
+  <si>
+    <t>PMID:33215859</t>
+  </si>
+  <si>
+    <t>Clinical spectrum in multiple families with primary COQ10 deficiency</t>
+  </si>
+  <si>
+    <t>COQ4-III2</t>
+  </si>
+  <si>
+    <t>c.437T&gt;G</t>
+  </si>
+  <si>
+    <t>NP_057119.3:p.(Phe146Cys)</t>
+  </si>
+  <si>
+    <t>PMID:31325447</t>
+  </si>
+  <si>
+    <t>Clinical whole-exome sequencing reveals a common pathogenic variant in patients with CoQ10 deficiency: An underdiagnosed cause of mitochondriopathy</t>
+  </si>
+  <si>
+    <t>Case 1</t>
+  </si>
+  <si>
+    <t>Case 2</t>
+  </si>
+  <si>
+    <t>Case 3</t>
+  </si>
+  <si>
+    <t>Plagiocephaly</t>
+  </si>
+  <si>
+    <t>HP:0001357</t>
+  </si>
+  <si>
+    <t>Infantile spasms</t>
+  </si>
+  <si>
+    <t>HP:0012469</t>
+  </si>
+  <si>
+    <t>Microcephaly</t>
+  </si>
+  <si>
+    <t>HP:0000252</t>
+  </si>
+  <si>
+    <t>Status epilepticus</t>
+  </si>
+  <si>
+    <t>HP:0002133</t>
+  </si>
+  <si>
+    <t>P2Y</t>
+  </si>
+  <si>
+    <t>NP_057119.3:p.(Gly124Val)</t>
+  </si>
+  <si>
+    <t>P28D</t>
+  </si>
+  <si>
+    <t>c.533G&gt;A</t>
+  </si>
+  <si>
+    <t>NP_057119.3:p.(Gly178Glu)</t>
+  </si>
+  <si>
+    <t>Hyperglycemia</t>
+  </si>
+  <si>
+    <t>‚∑</t>
+  </si>
+  <si>
+    <t>Unsteady gait</t>
+  </si>
+  <si>
+    <t>HP:0002317</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -822,6 +1092,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -862,7 +1139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -870,6 +1147,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1174,20 +1456,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BU28"/>
+  <dimension ref="A1:CS37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="AS2" workbookViewId="0">
+      <selection activeCell="AS30" sqref="A30:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="35" width="8.83203125" customWidth="1"/>
+    <col min="22" max="36" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:97" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1258,10 +1540,10 @@
         <v>20</v>
       </c>
       <c r="X1" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>248</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>83</v>
@@ -1285,130 +1567,202 @@
         <v>160</v>
       </c>
       <c r="AG1" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>199</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="AR1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="AT1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="BD1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="BI1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="BN1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="BS1" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BY1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="CA1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="BM1" s="2" t="s">
+      <c r="CB1" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="CC1" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="CD1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="CE1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="CF1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="CG1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="CH1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="BR1" s="2" t="s">
+      <c r="CI1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="BS1" s="2" t="s">
+      <c r="CJ1" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="BT1" s="2" t="s">
+      <c r="CK1" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="BU1" s="2" t="s">
+      <c r="CL1" s="2" t="s">
         <v>209</v>
       </c>
+      <c r="CM1" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="CN1" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="CO1" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="CP1" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="CQ1" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="CR1" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="CS1" s="2" t="s">
+        <v>332</v>
+      </c>
     </row>
-    <row r="2" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -1479,10 +1833,10 @@
         <v>53</v>
       </c>
       <c r="X2" t="s">
+        <v>342</v>
+      </c>
+      <c r="Y2" t="s">
         <v>247</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>249</v>
       </c>
       <c r="Z2" t="s">
         <v>84</v>
@@ -1506,130 +1860,202 @@
         <v>161</v>
       </c>
       <c r="AG2" t="s">
+        <v>264</v>
+      </c>
+      <c r="AH2" t="s">
         <v>54</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>204</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>206</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AK2" t="s">
         <v>208</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AL2" t="s">
         <v>121</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AM2" t="s">
         <v>200</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AN2" t="s">
         <v>166</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AO2" t="s">
+        <v>311</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>302</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>294</v>
+      </c>
+      <c r="AR2" t="s">
         <v>55</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AS2" t="s">
+        <v>280</v>
+      </c>
+      <c r="AT2" t="s">
         <v>56</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AU2" t="s">
         <v>57</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AV2" t="s">
         <v>239</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AW2" t="s">
         <v>58</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AX2" t="s">
         <v>117</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AY2" t="s">
         <v>179</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="AZ2" t="s">
         <v>243</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="BA2" t="s">
+        <v>278</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>331</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>335</v>
+      </c>
+      <c r="BD2" t="s">
         <v>149</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="BE2" t="s">
         <v>224</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="BF2" t="s">
         <v>241</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="BG2" t="s">
+        <v>275</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>344</v>
+      </c>
+      <c r="BI2" t="s">
         <v>59</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="BJ2" t="s">
         <v>111</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BK2" t="s">
         <v>176</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BL2" t="s">
+        <v>309</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>282</v>
+      </c>
+      <c r="BN2" t="s">
         <v>76</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BO2" t="s">
         <v>169</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BP2" t="s">
+        <v>284</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>304</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>286</v>
+      </c>
+      <c r="BS2" t="s">
         <v>171</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BT2" t="s">
         <v>114</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BU2" t="s">
         <v>60</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BV2" t="s">
         <v>61</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="BW2" t="s">
         <v>62</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="BX2" t="s">
         <v>63</v>
       </c>
-      <c r="BJ2" t="s">
+      <c r="BY2" t="s">
         <v>64</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="BZ2" t="s">
         <v>65</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="CA2" t="s">
         <v>66</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="CB2" t="s">
+        <v>257</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>259</v>
+      </c>
+      <c r="CD2" t="s">
         <v>80</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="CE2" t="s">
         <v>67</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="CF2" t="s">
         <v>68</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="CG2" t="s">
         <v>69</v>
       </c>
-      <c r="BQ2" t="s">
+      <c r="CH2" t="s">
         <v>70</v>
       </c>
-      <c r="BR2" t="s">
+      <c r="CI2" t="s">
         <v>78</v>
       </c>
-      <c r="BS2" t="s">
+      <c r="CJ2" t="s">
         <v>104</v>
       </c>
-      <c r="BT2" t="s">
+      <c r="CK2" t="s">
         <v>132</v>
       </c>
-      <c r="BU2" t="s">
+      <c r="CL2" t="s">
         <v>210</v>
       </c>
+      <c r="CM2" t="s">
+        <v>262</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>266</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>287</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>306</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>315</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>329</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>333</v>
+      </c>
     </row>
-    <row r="3" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>71</v>
       </c>
@@ -1708,59 +2134,59 @@
       <c r="AD3" t="s">
         <v>95</v>
       </c>
-      <c r="AG3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AK3" t="s">
+      <c r="AH3" t="s">
         <v>49</v>
       </c>
       <c r="AL3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM3" t="s">
         <v>147</v>
       </c>
-      <c r="AO3" t="s">
+      <c r="AT3" t="s">
         <v>74</v>
       </c>
-      <c r="AS3" t="s">
-        <v>87</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>87</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>87</v>
-      </c>
-      <c r="BB3" t="s">
+      <c r="AX3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>87</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>87</v>
+      </c>
+      <c r="BN3" t="s">
         <v>74</v>
       </c>
-      <c r="BE3" t="s">
-        <v>49</v>
-      </c>
-      <c r="BF3" t="s">
-        <v>49</v>
-      </c>
-      <c r="BH3" t="s">
-        <v>87</v>
-      </c>
-      <c r="BL3" t="s">
-        <v>87</v>
-      </c>
-      <c r="BM3" t="s">
+      <c r="BT3" t="s">
+        <v>49</v>
+      </c>
+      <c r="BU3" t="s">
+        <v>49</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>87</v>
+      </c>
+      <c r="CA3" t="s">
+        <v>87</v>
+      </c>
+      <c r="CD3" t="s">
         <v>81</v>
       </c>
-      <c r="BP3" t="s">
+      <c r="CG3" t="s">
         <v>74</v>
       </c>
-      <c r="BR3" t="s">
+      <c r="CI3" t="s">
         <v>74</v>
       </c>
-      <c r="BS3" t="s">
-        <v>87</v>
-      </c>
-      <c r="BT3" t="s">
+      <c r="CJ3" t="s">
+        <v>87</v>
+      </c>
+      <c r="CK3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>71</v>
       </c>
@@ -1839,53 +2265,53 @@
       <c r="AD4" t="s">
         <v>49</v>
       </c>
-      <c r="AG4" t="s">
-        <v>49</v>
-      </c>
-      <c r="AK4" t="s">
+      <c r="AH4" t="s">
         <v>49</v>
       </c>
       <c r="AL4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM4" t="s">
         <v>194</v>
       </c>
-      <c r="AO4" t="s">
+      <c r="AT4" t="s">
         <v>81</v>
       </c>
-      <c r="AS4" t="s">
-        <v>87</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>87</v>
-      </c>
-      <c r="AZ4" t="s">
-        <v>87</v>
-      </c>
-      <c r="BE4" t="s">
-        <v>49</v>
-      </c>
-      <c r="BF4" t="s">
-        <v>49</v>
-      </c>
-      <c r="BH4" t="s">
-        <v>87</v>
-      </c>
-      <c r="BL4" t="s">
+      <c r="AX4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>87</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>87</v>
+      </c>
+      <c r="BT4" t="s">
+        <v>49</v>
+      </c>
+      <c r="BU4" t="s">
+        <v>49</v>
+      </c>
+      <c r="BW4" t="s">
+        <v>87</v>
+      </c>
+      <c r="CA4" t="s">
         <v>96</v>
       </c>
-      <c r="BM4" t="s">
-        <v>49</v>
-      </c>
-      <c r="BP4" t="s">
-        <v>87</v>
-      </c>
-      <c r="BS4" t="s">
-        <v>87</v>
-      </c>
-      <c r="BT4" t="s">
+      <c r="CD4" t="s">
+        <v>49</v>
+      </c>
+      <c r="CG4" t="s">
+        <v>87</v>
+      </c>
+      <c r="CJ4" t="s">
+        <v>87</v>
+      </c>
+      <c r="CK4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>71</v>
       </c>
@@ -1961,53 +2387,53 @@
       <c r="AD5" t="s">
         <v>95</v>
       </c>
-      <c r="AG5" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>49</v>
+      <c r="AH5" t="s">
+        <v>95</v>
       </c>
       <c r="AL5" t="s">
         <v>49</v>
       </c>
-      <c r="AO5" t="s">
+      <c r="AM5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT5" t="s">
         <v>74</v>
       </c>
-      <c r="AS5" t="s">
-        <v>87</v>
-      </c>
-      <c r="AT5" t="s">
-        <v>87</v>
-      </c>
-      <c r="AZ5" t="s">
-        <v>87</v>
-      </c>
-      <c r="BE5" t="s">
-        <v>49</v>
-      </c>
-      <c r="BF5" t="s">
-        <v>49</v>
-      </c>
-      <c r="BH5" t="s">
-        <v>95</v>
-      </c>
-      <c r="BL5" t="s">
-        <v>87</v>
-      </c>
-      <c r="BM5" t="s">
-        <v>87</v>
-      </c>
-      <c r="BP5" t="s">
-        <v>87</v>
-      </c>
-      <c r="BS5" t="s">
+      <c r="AX5" t="s">
+        <v>87</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>87</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>87</v>
+      </c>
+      <c r="BT5" t="s">
+        <v>49</v>
+      </c>
+      <c r="BU5" t="s">
+        <v>49</v>
+      </c>
+      <c r="BW5" t="s">
+        <v>95</v>
+      </c>
+      <c r="CA5" t="s">
+        <v>87</v>
+      </c>
+      <c r="CD5" t="s">
+        <v>87</v>
+      </c>
+      <c r="CG5" t="s">
+        <v>87</v>
+      </c>
+      <c r="CJ5" t="s">
         <v>74</v>
       </c>
-      <c r="BT5" t="s">
+      <c r="CK5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>71</v>
       </c>
@@ -2080,50 +2506,50 @@
       <c r="AD6" t="s">
         <v>95</v>
       </c>
-      <c r="AG6" t="s">
+      <c r="AH6" t="s">
         <v>96</v>
       </c>
-      <c r="AK6" t="s">
-        <v>49</v>
-      </c>
-      <c r="AN6" t="s">
+      <c r="AL6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AR6" t="s">
         <v>81</v>
       </c>
-      <c r="AR6" t="s">
-        <v>87</v>
-      </c>
-      <c r="AS6" t="s">
-        <v>87</v>
-      </c>
-      <c r="AY6" t="s">
-        <v>87</v>
-      </c>
-      <c r="BD6" t="s">
-        <v>49</v>
-      </c>
-      <c r="BE6" t="s">
-        <v>49</v>
-      </c>
-      <c r="BG6" t="s">
+      <c r="AW6" t="s">
+        <v>87</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>87</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>87</v>
+      </c>
+      <c r="BS6" t="s">
+        <v>49</v>
+      </c>
+      <c r="BT6" t="s">
+        <v>49</v>
+      </c>
+      <c r="BV6" t="s">
         <v>112</v>
       </c>
-      <c r="BK6" t="s">
-        <v>87</v>
-      </c>
-      <c r="BL6" t="s">
-        <v>87</v>
-      </c>
-      <c r="BO6" t="s">
-        <v>87</v>
-      </c>
-      <c r="BR6" t="s">
-        <v>87</v>
-      </c>
-      <c r="BS6" t="s">
+      <c r="BZ6" t="s">
+        <v>87</v>
+      </c>
+      <c r="CA6" t="s">
+        <v>87</v>
+      </c>
+      <c r="CF6" t="s">
+        <v>87</v>
+      </c>
+      <c r="CI6" t="s">
+        <v>87</v>
+      </c>
+      <c r="CJ6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>71</v>
       </c>
@@ -2196,53 +2622,53 @@
       <c r="AD7" t="s">
         <v>95</v>
       </c>
-      <c r="AG7" t="s">
-        <v>87</v>
-      </c>
-      <c r="AK7" t="s">
+      <c r="AH7" t="s">
+        <v>87</v>
+      </c>
+      <c r="AL7" t="s">
         <v>122</v>
       </c>
-      <c r="AM7" t="s">
+      <c r="AN7" t="s">
         <v>118</v>
       </c>
-      <c r="AN7" t="s">
-        <v>87</v>
-      </c>
       <c r="AR7" t="s">
+        <v>87</v>
+      </c>
+      <c r="AW7" t="s">
         <v>118</v>
       </c>
-      <c r="AS7" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY7" t="s">
+      <c r="AX7" t="s">
+        <v>49</v>
+      </c>
+      <c r="BI7" t="s">
         <v>109</v>
       </c>
-      <c r="BD7" t="s">
-        <v>95</v>
-      </c>
-      <c r="BE7" t="s">
+      <c r="BS7" t="s">
+        <v>95</v>
+      </c>
+      <c r="BT7" t="s">
         <v>115</v>
       </c>
-      <c r="BG7" t="s">
-        <v>87</v>
-      </c>
-      <c r="BK7" t="s">
-        <v>87</v>
-      </c>
-      <c r="BL7" t="s">
-        <v>87</v>
-      </c>
-      <c r="BO7" t="s">
-        <v>87</v>
-      </c>
-      <c r="BR7" t="s">
-        <v>87</v>
-      </c>
-      <c r="BS7" t="s">
+      <c r="BV7" t="s">
+        <v>87</v>
+      </c>
+      <c r="BZ7" t="s">
+        <v>87</v>
+      </c>
+      <c r="CA7" t="s">
+        <v>87</v>
+      </c>
+      <c r="CF7" t="s">
+        <v>87</v>
+      </c>
+      <c r="CI7" t="s">
+        <v>87</v>
+      </c>
+      <c r="CJ7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>135</v>
       </c>
@@ -2315,32 +2741,32 @@
       <c r="AF8" t="s">
         <v>95</v>
       </c>
-      <c r="AG8" t="s">
-        <v>95</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>95</v>
-      </c>
-      <c r="AO8" t="s">
-        <v>95</v>
-      </c>
-      <c r="AP8" t="s">
+      <c r="AH8" t="s">
         <v>95</v>
       </c>
       <c r="AR8" t="s">
-        <v>87</v>
-      </c>
-      <c r="AS8" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="AT8" t="s">
-        <v>87</v>
-      </c>
-      <c r="BK8" t="s">
+        <v>95</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>95</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>87</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>87</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>87</v>
+      </c>
+      <c r="BZ8" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>135</v>
       </c>
@@ -2413,32 +2839,32 @@
       <c r="AF9" t="s">
         <v>49</v>
       </c>
-      <c r="AG9" t="s">
-        <v>49</v>
-      </c>
-      <c r="AN9" t="s">
-        <v>95</v>
-      </c>
-      <c r="AO9" t="s">
-        <v>49</v>
-      </c>
-      <c r="AP9" t="s">
-        <v>95</v>
+      <c r="AH9" t="s">
+        <v>49</v>
       </c>
       <c r="AR9" t="s">
-        <v>87</v>
-      </c>
-      <c r="AS9" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="AT9" t="s">
         <v>49</v>
       </c>
-      <c r="BK9" t="s">
+      <c r="AU9" t="s">
+        <v>95</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>49</v>
+      </c>
+      <c r="BZ9" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>135</v>
       </c>
@@ -2514,32 +2940,32 @@
       <c r="AF10" t="s">
         <v>49</v>
       </c>
-      <c r="AG10" t="s">
-        <v>95</v>
-      </c>
-      <c r="AN10" t="s">
-        <v>95</v>
-      </c>
-      <c r="AO10" t="s">
-        <v>49</v>
-      </c>
-      <c r="AP10" t="s">
-        <v>87</v>
+      <c r="AH10" t="s">
+        <v>95</v>
       </c>
       <c r="AR10" t="s">
-        <v>87</v>
-      </c>
-      <c r="AS10" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="AT10" t="s">
-        <v>95</v>
-      </c>
-      <c r="BK10" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>95</v>
+      </c>
+      <c r="BZ10" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>135</v>
       </c>
@@ -2615,32 +3041,32 @@
       <c r="AF11" t="s">
         <v>49</v>
       </c>
-      <c r="AG11" t="s">
-        <v>95</v>
-      </c>
-      <c r="AN11" t="s">
-        <v>95</v>
-      </c>
-      <c r="AO11" t="s">
-        <v>95</v>
-      </c>
-      <c r="AP11" t="s">
+      <c r="AH11" t="s">
         <v>95</v>
       </c>
       <c r="AR11" t="s">
-        <v>87</v>
-      </c>
-      <c r="AS11" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="AT11" t="s">
         <v>95</v>
       </c>
-      <c r="BK11" t="s">
+      <c r="AU11" t="s">
+        <v>95</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>87</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>87</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>95</v>
+      </c>
+      <c r="BZ11" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>135</v>
       </c>
@@ -2713,32 +3139,32 @@
       <c r="AF12" t="s">
         <v>49</v>
       </c>
-      <c r="AG12" t="s">
-        <v>95</v>
-      </c>
-      <c r="AN12" t="s">
-        <v>95</v>
-      </c>
-      <c r="AO12" t="s">
-        <v>95</v>
-      </c>
-      <c r="AP12" t="s">
-        <v>87</v>
+      <c r="AH12" t="s">
+        <v>95</v>
       </c>
       <c r="AR12" t="s">
-        <v>87</v>
-      </c>
-      <c r="AS12" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="AT12" t="s">
-        <v>49</v>
-      </c>
-      <c r="BK12" t="s">
+        <v>95</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>87</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>87</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>87</v>
+      </c>
+      <c r="AY12" t="s">
+        <v>49</v>
+      </c>
+      <c r="BZ12" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>135</v>
       </c>
@@ -2814,32 +3240,32 @@
       <c r="AF13" t="s">
         <v>49</v>
       </c>
-      <c r="AG13" t="s">
-        <v>87</v>
-      </c>
-      <c r="AN13" t="s">
-        <v>95</v>
-      </c>
-      <c r="AO13" t="s">
-        <v>95</v>
-      </c>
-      <c r="AP13" t="s">
+      <c r="AH13" t="s">
         <v>87</v>
       </c>
       <c r="AR13" t="s">
-        <v>87</v>
-      </c>
-      <c r="AS13" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="AT13" t="s">
         <v>95</v>
       </c>
-      <c r="BK13" t="s">
+      <c r="AU13" t="s">
+        <v>87</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>87</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>87</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>95</v>
+      </c>
+      <c r="BZ13" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>162</v>
       </c>
@@ -2891,44 +3317,44 @@
       <c r="S14" t="s">
         <v>167</v>
       </c>
-      <c r="AG14" t="s">
-        <v>87</v>
-      </c>
-      <c r="AK14" t="s">
+      <c r="AH14" t="s">
         <v>87</v>
       </c>
       <c r="AL14" t="s">
-        <v>95</v>
-      </c>
-      <c r="AP14" t="s">
-        <v>87</v>
-      </c>
-      <c r="AR14" t="s">
-        <v>87</v>
-      </c>
-      <c r="AS14" t="s">
-        <v>87</v>
-      </c>
-      <c r="AV14" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>95</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>87</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>87</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>87</v>
+      </c>
+      <c r="BD14" t="s">
         <v>167</v>
       </c>
-      <c r="AY14" t="s">
-        <v>87</v>
-      </c>
-      <c r="AZ14" t="s">
-        <v>87</v>
-      </c>
-      <c r="BB14" t="s">
+      <c r="BI14" t="s">
+        <v>87</v>
+      </c>
+      <c r="BJ14" t="s">
+        <v>87</v>
+      </c>
+      <c r="BN14" t="s">
         <v>167</v>
       </c>
-      <c r="BC14" t="s">
+      <c r="BO14" t="s">
         <v>167</v>
       </c>
-      <c r="BE14" t="s">
+      <c r="BT14" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>162</v>
       </c>
@@ -2983,32 +3409,32 @@
       <c r="AF15" t="s">
         <v>87</v>
       </c>
-      <c r="AP15" t="s">
+      <c r="AU15" t="s">
         <v>107</v>
       </c>
-      <c r="AR15" t="s">
-        <v>87</v>
-      </c>
-      <c r="AS15" t="s">
+      <c r="AW15" t="s">
+        <v>87</v>
+      </c>
+      <c r="AX15" t="s">
         <v>107</v>
       </c>
-      <c r="AV15" t="s">
+      <c r="BD15" t="s">
         <v>174</v>
       </c>
-      <c r="AY15" t="s">
+      <c r="BI15" t="s">
         <v>177</v>
       </c>
-      <c r="AZ15" t="s">
+      <c r="BJ15" t="s">
         <v>177</v>
       </c>
-      <c r="BB15" t="s">
+      <c r="BN15" t="s">
         <v>174</v>
       </c>
-      <c r="BE15" t="s">
+      <c r="BT15" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="16" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>186</v>
       </c>
@@ -3060,50 +3486,50 @@
       <c r="W16" t="s">
         <v>95</v>
       </c>
-      <c r="AG16" t="s">
+      <c r="AH16" t="s">
         <v>201</v>
       </c>
-      <c r="AH16" t="s">
-        <v>87</v>
-      </c>
       <c r="AI16" t="s">
-        <v>201</v>
+        <v>87</v>
       </c>
       <c r="AJ16" t="s">
         <v>201</v>
       </c>
       <c r="AK16" t="s">
-        <v>87</v>
+        <v>201</v>
       </c>
       <c r="AL16" t="s">
         <v>87</v>
       </c>
       <c r="AM16" t="s">
-        <v>95</v>
-      </c>
-      <c r="AP16" t="s">
-        <v>95</v>
-      </c>
-      <c r="AR16" t="s">
-        <v>95</v>
-      </c>
-      <c r="BF16" t="s">
-        <v>87</v>
-      </c>
-      <c r="BJ16" t="s">
-        <v>95</v>
-      </c>
-      <c r="BK16" t="s">
-        <v>95</v>
-      </c>
-      <c r="BN16" t="s">
+        <v>87</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>95</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>95</v>
+      </c>
+      <c r="AW16" t="s">
         <v>95</v>
       </c>
       <c r="BU16" t="s">
+        <v>87</v>
+      </c>
+      <c r="BY16" t="s">
+        <v>95</v>
+      </c>
+      <c r="BZ16" t="s">
+        <v>95</v>
+      </c>
+      <c r="CE16" t="s">
+        <v>95</v>
+      </c>
+      <c r="CL16" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>186</v>
       </c>
@@ -3155,9 +3581,6 @@
       <c r="W17" t="s">
         <v>95</v>
       </c>
-      <c r="AG17" t="s">
-        <v>49</v>
-      </c>
       <c r="AH17" t="s">
         <v>49</v>
       </c>
@@ -3176,29 +3599,32 @@
       <c r="AM17" t="s">
         <v>49</v>
       </c>
-      <c r="AP17" t="s">
-        <v>87</v>
-      </c>
-      <c r="AR17" t="s">
-        <v>87</v>
-      </c>
-      <c r="BF17" t="s">
-        <v>95</v>
-      </c>
-      <c r="BJ17" t="s">
-        <v>87</v>
-      </c>
-      <c r="BK17" t="s">
-        <v>95</v>
-      </c>
-      <c r="BN17" t="s">
+      <c r="AN17" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>87</v>
+      </c>
+      <c r="AW17" t="s">
         <v>87</v>
       </c>
       <c r="BU17" t="s">
+        <v>95</v>
+      </c>
+      <c r="BY17" t="s">
+        <v>87</v>
+      </c>
+      <c r="BZ17" t="s">
+        <v>95</v>
+      </c>
+      <c r="CE17" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL17" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>186</v>
       </c>
@@ -3250,12 +3676,9 @@
       <c r="W18" t="s">
         <v>95</v>
       </c>
-      <c r="AG18" t="s">
+      <c r="AH18" t="s">
         <v>147</v>
       </c>
-      <c r="AH18" t="s">
-        <v>87</v>
-      </c>
       <c r="AI18" t="s">
         <v>87</v>
       </c>
@@ -3266,34 +3689,37 @@
         <v>87</v>
       </c>
       <c r="AL18" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM18" t="s">
         <v>147</v>
       </c>
-      <c r="AM18" t="s">
-        <v>95</v>
-      </c>
-      <c r="AP18" t="s">
-        <v>95</v>
-      </c>
-      <c r="AR18" t="s">
-        <v>95</v>
-      </c>
-      <c r="BF18" t="s">
-        <v>87</v>
-      </c>
-      <c r="BJ18" t="s">
-        <v>87</v>
-      </c>
-      <c r="BK18" t="s">
-        <v>95</v>
-      </c>
-      <c r="BN18" t="s">
-        <v>87</v>
+      <c r="AN18" t="s">
+        <v>95</v>
+      </c>
+      <c r="AU18" t="s">
+        <v>95</v>
+      </c>
+      <c r="AW18" t="s">
+        <v>95</v>
       </c>
       <c r="BU18" t="s">
         <v>87</v>
       </c>
+      <c r="BY18" t="s">
+        <v>87</v>
+      </c>
+      <c r="BZ18" t="s">
+        <v>95</v>
+      </c>
+      <c r="CE18" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL18" t="s">
+        <v>87</v>
+      </c>
     </row>
-    <row r="19" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>186</v>
       </c>
@@ -3345,11 +3771,8 @@
       <c r="W19" t="s">
         <v>95</v>
       </c>
-      <c r="AG19" t="s">
+      <c r="AH19" t="s">
         <v>202</v>
-      </c>
-      <c r="AH19" t="s">
-        <v>194</v>
       </c>
       <c r="AI19" t="s">
         <v>194</v>
@@ -3364,31 +3787,34 @@
         <v>194</v>
       </c>
       <c r="AM19" t="s">
-        <v>95</v>
-      </c>
-      <c r="AP19" t="s">
-        <v>95</v>
-      </c>
-      <c r="AR19" t="s">
-        <v>95</v>
-      </c>
-      <c r="BF19" t="s">
-        <v>87</v>
-      </c>
-      <c r="BJ19" t="s">
-        <v>87</v>
-      </c>
-      <c r="BK19" t="s">
-        <v>95</v>
-      </c>
-      <c r="BN19" t="s">
-        <v>87</v>
+        <v>194</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>95</v>
+      </c>
+      <c r="AU19" t="s">
+        <v>95</v>
+      </c>
+      <c r="AW19" t="s">
+        <v>95</v>
       </c>
       <c r="BU19" t="s">
         <v>87</v>
       </c>
+      <c r="BY19" t="s">
+        <v>87</v>
+      </c>
+      <c r="BZ19" t="s">
+        <v>95</v>
+      </c>
+      <c r="CE19" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL19" t="s">
+        <v>87</v>
+      </c>
     </row>
-    <row r="20" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>186</v>
       </c>
@@ -3440,9 +3866,6 @@
       <c r="W20" t="s">
         <v>95</v>
       </c>
-      <c r="AG20" t="s">
-        <v>49</v>
-      </c>
       <c r="AH20" t="s">
         <v>49</v>
       </c>
@@ -3459,31 +3882,34 @@
         <v>49</v>
       </c>
       <c r="AM20" t="s">
-        <v>95</v>
-      </c>
-      <c r="AP20" t="s">
-        <v>95</v>
-      </c>
-      <c r="AR20" t="s">
-        <v>95</v>
-      </c>
-      <c r="BF20" t="s">
-        <v>87</v>
-      </c>
-      <c r="BJ20" t="s">
-        <v>87</v>
-      </c>
-      <c r="BK20" t="s">
-        <v>87</v>
-      </c>
-      <c r="BN20" t="s">
-        <v>87</v>
+        <v>49</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>95</v>
+      </c>
+      <c r="AU20" t="s">
+        <v>95</v>
+      </c>
+      <c r="AW20" t="s">
+        <v>95</v>
       </c>
       <c r="BU20" t="s">
         <v>87</v>
       </c>
+      <c r="BY20" t="s">
+        <v>87</v>
+      </c>
+      <c r="BZ20" t="s">
+        <v>87</v>
+      </c>
+      <c r="CE20" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL20" t="s">
+        <v>87</v>
+      </c>
     </row>
-    <row r="21" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>186</v>
       </c>
@@ -3535,41 +3961,41 @@
       <c r="W21" t="s">
         <v>95</v>
       </c>
-      <c r="AG21" t="s">
-        <v>87</v>
-      </c>
       <c r="AH21" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI21" t="s">
         <v>225</v>
       </c>
-      <c r="AJ21" t="s">
-        <v>49</v>
-      </c>
       <c r="AK21" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="AL21" t="s">
         <v>87</v>
       </c>
       <c r="AM21" t="s">
-        <v>95</v>
-      </c>
-      <c r="AR21" t="s">
-        <v>87</v>
+        <v>87</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>95</v>
       </c>
       <c r="AW21" t="s">
-        <v>95</v>
-      </c>
-      <c r="AZ21" t="s">
-        <v>87</v>
-      </c>
-      <c r="BL21" t="s">
-        <v>87</v>
-      </c>
-      <c r="BN21" t="s">
+        <v>87</v>
+      </c>
+      <c r="BE21" t="s">
+        <v>95</v>
+      </c>
+      <c r="BJ21" t="s">
+        <v>87</v>
+      </c>
+      <c r="CA21" t="s">
+        <v>87</v>
+      </c>
+      <c r="CE21" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>186</v>
       </c>
@@ -3621,41 +4047,41 @@
       <c r="W22" t="s">
         <v>95</v>
       </c>
-      <c r="AG22" t="s">
-        <v>87</v>
-      </c>
       <c r="AH22" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI22" t="s">
         <v>226</v>
       </c>
-      <c r="AJ22" t="s">
-        <v>49</v>
-      </c>
       <c r="AK22" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="AL22" t="s">
         <v>87</v>
       </c>
       <c r="AM22" t="s">
-        <v>95</v>
-      </c>
-      <c r="AR22" t="s">
-        <v>87</v>
+        <v>87</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>95</v>
       </c>
       <c r="AW22" t="s">
-        <v>95</v>
-      </c>
-      <c r="AZ22" t="s">
-        <v>95</v>
-      </c>
-      <c r="BL22" t="s">
-        <v>87</v>
-      </c>
-      <c r="BN22" t="s">
+        <v>87</v>
+      </c>
+      <c r="BE22" t="s">
+        <v>95</v>
+      </c>
+      <c r="BJ22" t="s">
+        <v>95</v>
+      </c>
+      <c r="CA22" t="s">
+        <v>87</v>
+      </c>
+      <c r="CE22" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>186</v>
       </c>
@@ -3707,41 +4133,41 @@
       <c r="W23" t="s">
         <v>95</v>
       </c>
-      <c r="AG23" t="s">
-        <v>87</v>
-      </c>
       <c r="AH23" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI23" t="s">
         <v>227</v>
       </c>
-      <c r="AJ23" t="s">
-        <v>95</v>
-      </c>
       <c r="AK23" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="AL23" t="s">
         <v>87</v>
       </c>
       <c r="AM23" t="s">
-        <v>95</v>
-      </c>
-      <c r="AR23" t="s">
+        <v>87</v>
+      </c>
+      <c r="AN23" t="s">
         <v>95</v>
       </c>
       <c r="AW23" t="s">
         <v>95</v>
       </c>
-      <c r="AZ23" t="s">
-        <v>95</v>
-      </c>
-      <c r="BL23" t="s">
-        <v>87</v>
-      </c>
-      <c r="BN23" t="s">
+      <c r="BE23" t="s">
+        <v>95</v>
+      </c>
+      <c r="BJ23" t="s">
+        <v>95</v>
+      </c>
+      <c r="CA23" t="s">
+        <v>87</v>
+      </c>
+      <c r="CE23" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>186</v>
       </c>
@@ -3793,41 +4219,41 @@
       <c r="W24" t="s">
         <v>95</v>
       </c>
-      <c r="AG24" t="s">
-        <v>228</v>
-      </c>
       <c r="AH24" t="s">
         <v>228</v>
       </c>
-      <c r="AJ24" t="s">
-        <v>49</v>
+      <c r="AI24" t="s">
+        <v>228</v>
       </c>
       <c r="AK24" t="s">
-        <v>228</v>
+        <v>49</v>
       </c>
       <c r="AL24" t="s">
         <v>228</v>
       </c>
       <c r="AM24" t="s">
-        <v>95</v>
-      </c>
-      <c r="AR24" t="s">
+        <v>228</v>
+      </c>
+      <c r="AN24" t="s">
         <v>95</v>
       </c>
       <c r="AW24" t="s">
-        <v>87</v>
-      </c>
-      <c r="AZ24" t="s">
-        <v>87</v>
-      </c>
-      <c r="BL24" t="s">
-        <v>87</v>
-      </c>
-      <c r="BN24" t="s">
+        <v>95</v>
+      </c>
+      <c r="BE24" t="s">
+        <v>87</v>
+      </c>
+      <c r="BJ24" t="s">
+        <v>87</v>
+      </c>
+      <c r="CA24" t="s">
+        <v>87</v>
+      </c>
+      <c r="CE24" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>186</v>
       </c>
@@ -3879,41 +4305,41 @@
       <c r="W25" t="s">
         <v>95</v>
       </c>
-      <c r="AG25" t="s">
-        <v>87</v>
-      </c>
       <c r="AH25" t="s">
         <v>87</v>
       </c>
-      <c r="AJ25" t="s">
-        <v>49</v>
+      <c r="AI25" t="s">
+        <v>87</v>
       </c>
       <c r="AK25" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="AL25" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM25" t="s">
         <v>229</v>
       </c>
-      <c r="AM25" t="s">
-        <v>95</v>
-      </c>
-      <c r="AR25" t="s">
+      <c r="AN25" t="s">
         <v>95</v>
       </c>
       <c r="AW25" t="s">
-        <v>87</v>
-      </c>
-      <c r="AZ25" t="s">
-        <v>87</v>
-      </c>
-      <c r="BL25" t="s">
-        <v>95</v>
-      </c>
-      <c r="BN25" t="s">
+        <v>95</v>
+      </c>
+      <c r="BE25" t="s">
+        <v>87</v>
+      </c>
+      <c r="BJ25" t="s">
+        <v>87</v>
+      </c>
+      <c r="CA25" t="s">
+        <v>95</v>
+      </c>
+      <c r="CE25" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>186</v>
       </c>
@@ -3965,41 +4391,41 @@
       <c r="W26" t="s">
         <v>87</v>
       </c>
-      <c r="AG26" t="s">
-        <v>229</v>
-      </c>
       <c r="AH26" t="s">
         <v>229</v>
       </c>
-      <c r="AJ26" t="s">
-        <v>49</v>
+      <c r="AI26" t="s">
+        <v>229</v>
       </c>
       <c r="AK26" t="s">
-        <v>229</v>
+        <v>49</v>
       </c>
       <c r="AL26" t="s">
         <v>229</v>
       </c>
       <c r="AM26" t="s">
-        <v>95</v>
-      </c>
-      <c r="AR26" t="s">
+        <v>229</v>
+      </c>
+      <c r="AN26" t="s">
         <v>95</v>
       </c>
       <c r="AW26" t="s">
-        <v>87</v>
-      </c>
-      <c r="AZ26" t="s">
-        <v>95</v>
-      </c>
-      <c r="BL26" t="s">
-        <v>95</v>
-      </c>
-      <c r="BN26" t="s">
+        <v>95</v>
+      </c>
+      <c r="BE26" t="s">
+        <v>87</v>
+      </c>
+      <c r="BJ26" t="s">
+        <v>95</v>
+      </c>
+      <c r="CA26" t="s">
+        <v>95</v>
+      </c>
+      <c r="CE26" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>235</v>
       </c>
@@ -4031,13 +4457,13 @@
         <v>197</v>
       </c>
       <c r="L27" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="M27" t="s">
         <v>92</v>
       </c>
       <c r="N27" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="O27" t="s">
         <v>98</v>
@@ -4066,32 +4492,32 @@
       <c r="AF27" t="s">
         <v>49</v>
       </c>
-      <c r="AM27" t="s">
-        <v>95</v>
-      </c>
-      <c r="AO27" t="s">
+      <c r="AN27" t="s">
+        <v>95</v>
+      </c>
+      <c r="AT27" t="s">
         <v>244</v>
       </c>
-      <c r="AP27" t="s">
+      <c r="AU27" t="s">
         <v>92</v>
       </c>
-      <c r="AQ27" t="s">
+      <c r="AV27" t="s">
         <v>92</v>
       </c>
-      <c r="AU27" t="s">
+      <c r="AZ27" t="s">
         <v>143</v>
       </c>
-      <c r="AX27" t="s">
+      <c r="BF27" t="s">
         <v>92</v>
       </c>
-      <c r="BK27" t="s">
+      <c r="BZ27" t="s">
         <v>92</v>
       </c>
-      <c r="BL27" t="s">
+      <c r="CA27" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="28" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>235</v>
       </c>
@@ -4099,7 +4525,7 @@
         <v>236</v>
       </c>
       <c r="C28" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E28" t="s">
         <v>41</v>
@@ -4126,7 +4552,7 @@
         <v>92</v>
       </c>
       <c r="N28" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="O28" t="s">
         <v>108</v>
@@ -4138,7 +4564,7 @@
         <v>49</v>
       </c>
       <c r="W28" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="X28" t="s">
         <v>143</v>
@@ -4152,26 +4578,803 @@
       <c r="AF28" t="s">
         <v>95</v>
       </c>
-      <c r="AM28" t="s">
-        <v>95</v>
-      </c>
-      <c r="AO28" t="s">
-        <v>252</v>
-      </c>
-      <c r="AP28" t="s">
+      <c r="AN28" t="s">
+        <v>95</v>
+      </c>
+      <c r="AT28" t="s">
+        <v>250</v>
+      </c>
+      <c r="AU28" t="s">
         <v>92</v>
       </c>
-      <c r="AQ28" t="s">
+      <c r="AV28" t="s">
         <v>92</v>
       </c>
-      <c r="AR28" t="s">
+      <c r="AW28" t="s">
         <v>218</v>
       </c>
-      <c r="AX28" t="s">
+      <c r="BF28" t="s">
         <v>92</v>
       </c>
-      <c r="BQ28" t="s">
+      <c r="CH28" t="s">
         <v>143</v>
+      </c>
+    </row>
+    <row r="29" spans="1:95" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>253</v>
+      </c>
+      <c r="B29" t="s">
+        <v>254</v>
+      </c>
+      <c r="C29" t="s">
+        <v>255</v>
+      </c>
+      <c r="E29" t="s">
+        <v>41</v>
+      </c>
+      <c r="F29" t="s">
+        <v>42</v>
+      </c>
+      <c r="G29" t="s">
+        <v>43</v>
+      </c>
+      <c r="H29" t="s">
+        <v>44</v>
+      </c>
+      <c r="I29" t="s">
+        <v>45</v>
+      </c>
+      <c r="J29" t="s">
+        <v>267</v>
+      </c>
+      <c r="K29" t="s">
+        <v>268</v>
+      </c>
+      <c r="L29" t="s">
+        <v>269</v>
+      </c>
+      <c r="M29" t="s">
+        <v>74</v>
+      </c>
+      <c r="N29" t="s">
+        <v>218</v>
+      </c>
+      <c r="O29" t="s">
+        <v>98</v>
+      </c>
+      <c r="P29" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>49</v>
+      </c>
+      <c r="W29" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK29" t="s">
+        <v>95</v>
+      </c>
+      <c r="AT29" t="s">
+        <v>95</v>
+      </c>
+      <c r="AW29" t="s">
+        <v>260</v>
+      </c>
+      <c r="BV29" t="s">
+        <v>97</v>
+      </c>
+      <c r="CB29" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC29" t="s">
+        <v>97</v>
+      </c>
+      <c r="CM29" t="s">
+        <v>95</v>
+      </c>
+      <c r="CN29" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:95" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="L30" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="M30" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="N30" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="O30" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="P30" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q30" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="S30" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI30" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK30" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL30" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AM30" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="AN30" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="AQ30" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="AR30" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="AS30" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="BA30" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH30" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="BI30" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="BJ30" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="BK30" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="BM30" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="BN30" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="BO30" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="BP30" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="BR30" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="BT30" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="BU30" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="CO30" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:95" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>270</v>
+      </c>
+      <c r="B31" t="s">
+        <v>271</v>
+      </c>
+      <c r="C31" t="s">
+        <v>289</v>
+      </c>
+      <c r="E31" t="s">
+        <v>41</v>
+      </c>
+      <c r="F31" t="s">
+        <v>42</v>
+      </c>
+      <c r="G31" t="s">
+        <v>43</v>
+      </c>
+      <c r="H31" t="s">
+        <v>44</v>
+      </c>
+      <c r="I31" t="s">
+        <v>45</v>
+      </c>
+      <c r="J31" t="s">
+        <v>291</v>
+      </c>
+      <c r="K31" t="s">
+        <v>291</v>
+      </c>
+      <c r="M31" t="s">
+        <v>177</v>
+      </c>
+      <c r="N31" t="s">
+        <v>290</v>
+      </c>
+      <c r="O31" t="s">
+        <v>108</v>
+      </c>
+      <c r="P31" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>49</v>
+      </c>
+      <c r="S31" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>95</v>
+      </c>
+      <c r="AM31" t="s">
+        <v>87</v>
+      </c>
+      <c r="AN31" t="s">
+        <v>87</v>
+      </c>
+      <c r="AQ31" t="s">
+        <v>295</v>
+      </c>
+      <c r="AR31" t="s">
+        <v>87</v>
+      </c>
+      <c r="AS31" t="s">
+        <v>95</v>
+      </c>
+      <c r="BA31" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG31" t="s">
+        <v>95</v>
+      </c>
+      <c r="BI31" t="s">
+        <v>95</v>
+      </c>
+      <c r="BJ31" t="s">
+        <v>95</v>
+      </c>
+      <c r="BK31" t="s">
+        <v>95</v>
+      </c>
+      <c r="BO31" t="s">
+        <v>95</v>
+      </c>
+      <c r="BP31" t="s">
+        <v>95</v>
+      </c>
+      <c r="BR31" t="s">
+        <v>95</v>
+      </c>
+      <c r="BT31" t="s">
+        <v>87</v>
+      </c>
+      <c r="BU31" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:95" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>296</v>
+      </c>
+      <c r="B32" t="s">
+        <v>297</v>
+      </c>
+      <c r="C32" t="s">
+        <v>298</v>
+      </c>
+      <c r="E32" t="s">
+        <v>41</v>
+      </c>
+      <c r="F32" t="s">
+        <v>42</v>
+      </c>
+      <c r="G32" t="s">
+        <v>43</v>
+      </c>
+      <c r="H32" t="s">
+        <v>44</v>
+      </c>
+      <c r="I32" t="s">
+        <v>45</v>
+      </c>
+      <c r="J32" t="s">
+        <v>316</v>
+      </c>
+      <c r="K32" t="s">
+        <v>316</v>
+      </c>
+      <c r="L32" t="s">
+        <v>317</v>
+      </c>
+      <c r="M32" t="s">
+        <v>167</v>
+      </c>
+      <c r="N32" t="s">
+        <v>300</v>
+      </c>
+      <c r="O32" t="s">
+        <v>108</v>
+      </c>
+      <c r="P32" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>49</v>
+      </c>
+      <c r="S32" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM32" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>95</v>
+      </c>
+      <c r="AP32" t="s">
+        <v>95</v>
+      </c>
+      <c r="AS32" t="s">
+        <v>95</v>
+      </c>
+      <c r="AY32" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG32" t="s">
+        <v>95</v>
+      </c>
+      <c r="BI32" t="s">
+        <v>95</v>
+      </c>
+      <c r="BJ32" t="s">
+        <v>95</v>
+      </c>
+      <c r="BL32" t="s">
+        <v>95</v>
+      </c>
+      <c r="BQ32" t="s">
+        <v>172</v>
+      </c>
+      <c r="BU32" t="s">
+        <v>118</v>
+      </c>
+      <c r="CP32" t="s">
+        <v>174</v>
+      </c>
+      <c r="CQ32" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:97" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>296</v>
+      </c>
+      <c r="B33" t="s">
+        <v>297</v>
+      </c>
+      <c r="C33" t="s">
+        <v>299</v>
+      </c>
+      <c r="E33" t="s">
+        <v>41</v>
+      </c>
+      <c r="F33" t="s">
+        <v>42</v>
+      </c>
+      <c r="G33" t="s">
+        <v>43</v>
+      </c>
+      <c r="H33" t="s">
+        <v>44</v>
+      </c>
+      <c r="I33" t="s">
+        <v>45</v>
+      </c>
+      <c r="J33" t="s">
+        <v>316</v>
+      </c>
+      <c r="K33" t="s">
+        <v>316</v>
+      </c>
+      <c r="M33" t="s">
+        <v>313</v>
+      </c>
+      <c r="N33" t="s">
+        <v>312</v>
+      </c>
+      <c r="O33" t="s">
+        <v>108</v>
+      </c>
+      <c r="P33" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>49</v>
+      </c>
+      <c r="S33" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM33" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AO33" t="s">
+        <v>95</v>
+      </c>
+      <c r="AY33" t="s">
+        <v>313</v>
+      </c>
+      <c r="BG33" t="s">
+        <v>95</v>
+      </c>
+      <c r="BQ33" t="s">
+        <v>307</v>
+      </c>
+      <c r="CP33" t="s">
+        <v>87</v>
+      </c>
+      <c r="CQ33" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:97" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>318</v>
+      </c>
+      <c r="B34" t="s">
+        <v>319</v>
+      </c>
+      <c r="C34" t="s">
+        <v>320</v>
+      </c>
+      <c r="E34" t="s">
+        <v>41</v>
+      </c>
+      <c r="F34" t="s">
+        <v>42</v>
+      </c>
+      <c r="G34" t="s">
+        <v>43</v>
+      </c>
+      <c r="H34" t="s">
+        <v>44</v>
+      </c>
+      <c r="I34" t="s">
+        <v>45</v>
+      </c>
+      <c r="J34" t="s">
+        <v>321</v>
+      </c>
+      <c r="K34" t="s">
+        <v>321</v>
+      </c>
+      <c r="L34" t="s">
+        <v>322</v>
+      </c>
+      <c r="M34" t="s">
+        <v>74</v>
+      </c>
+      <c r="N34" t="s">
+        <v>313</v>
+      </c>
+      <c r="O34" t="s">
+        <v>108</v>
+      </c>
+      <c r="P34" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>49</v>
+      </c>
+      <c r="S34" t="s">
+        <v>74</v>
+      </c>
+      <c r="W34" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL34" t="s">
+        <v>95</v>
+      </c>
+      <c r="AQ34" t="s">
+        <v>95</v>
+      </c>
+      <c r="AR34" t="s">
+        <v>95</v>
+      </c>
+      <c r="AT34" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW34" t="s">
+        <v>177</v>
+      </c>
+      <c r="BU34" t="s">
+        <v>174</v>
+      </c>
+      <c r="BY34" t="s">
+        <v>95</v>
+      </c>
+      <c r="BZ34" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="1:97" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>323</v>
+      </c>
+      <c r="B35" t="s">
+        <v>324</v>
+      </c>
+      <c r="C35" t="s">
+        <v>325</v>
+      </c>
+      <c r="E35" t="s">
+        <v>41</v>
+      </c>
+      <c r="F35" t="s">
+        <v>42</v>
+      </c>
+      <c r="G35" t="s">
+        <v>43</v>
+      </c>
+      <c r="H35" t="s">
+        <v>44</v>
+      </c>
+      <c r="I35" t="s">
+        <v>45</v>
+      </c>
+      <c r="J35" t="s">
+        <v>197</v>
+      </c>
+      <c r="K35" t="s">
+        <v>197</v>
+      </c>
+      <c r="L35" t="s">
+        <v>251</v>
+      </c>
+      <c r="M35" t="s">
+        <v>250</v>
+      </c>
+      <c r="N35" t="s">
+        <v>115</v>
+      </c>
+      <c r="O35" t="s">
+        <v>98</v>
+      </c>
+      <c r="P35" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>49</v>
+      </c>
+      <c r="T35" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI35" t="s">
+        <v>218</v>
+      </c>
+      <c r="AK35" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL35" t="s">
+        <v>226</v>
+      </c>
+      <c r="AN35" t="s">
+        <v>226</v>
+      </c>
+      <c r="AQ35" t="s">
+        <v>95</v>
+      </c>
+      <c r="BB35" t="s">
+        <v>250</v>
+      </c>
+      <c r="BC35" t="s">
+        <v>336</v>
+      </c>
+      <c r="BE35" t="s">
+        <v>95</v>
+      </c>
+      <c r="BJ35" t="s">
+        <v>95</v>
+      </c>
+      <c r="BV35" t="s">
+        <v>95</v>
+      </c>
+      <c r="CE35" t="s">
+        <v>95</v>
+      </c>
+      <c r="CR35" t="s">
+        <v>95</v>
+      </c>
+      <c r="CS35" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:97" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>323</v>
+      </c>
+      <c r="B36" t="s">
+        <v>324</v>
+      </c>
+      <c r="C36" t="s">
+        <v>326</v>
+      </c>
+      <c r="E36" t="s">
+        <v>41</v>
+      </c>
+      <c r="F36" t="s">
+        <v>42</v>
+      </c>
+      <c r="G36" t="s">
+        <v>43</v>
+      </c>
+      <c r="H36" t="s">
+        <v>44</v>
+      </c>
+      <c r="I36" t="s">
+        <v>45</v>
+      </c>
+      <c r="J36" t="s">
+        <v>197</v>
+      </c>
+      <c r="K36" t="s">
+        <v>222</v>
+      </c>
+      <c r="L36" t="s">
+        <v>337</v>
+      </c>
+      <c r="M36" t="s">
+        <v>226</v>
+      </c>
+      <c r="N36" t="s">
+        <v>112</v>
+      </c>
+      <c r="O36" t="s">
+        <v>108</v>
+      </c>
+      <c r="P36" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>49</v>
+      </c>
+      <c r="S36" t="s">
+        <v>226</v>
+      </c>
+      <c r="T36" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="1:97" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>323</v>
+      </c>
+      <c r="B37" t="s">
+        <v>324</v>
+      </c>
+      <c r="C37" t="s">
+        <v>327</v>
+      </c>
+      <c r="E37" t="s">
+        <v>41</v>
+      </c>
+      <c r="F37" t="s">
+        <v>42</v>
+      </c>
+      <c r="G37" t="s">
+        <v>43</v>
+      </c>
+      <c r="H37" t="s">
+        <v>44</v>
+      </c>
+      <c r="I37" t="s">
+        <v>45</v>
+      </c>
+      <c r="J37" t="s">
+        <v>197</v>
+      </c>
+      <c r="K37" t="s">
+        <v>339</v>
+      </c>
+      <c r="L37" t="s">
+        <v>340</v>
+      </c>
+      <c r="M37" t="s">
+        <v>74</v>
+      </c>
+      <c r="N37" t="s">
+        <v>338</v>
+      </c>
+      <c r="O37" t="s">
+        <v>98</v>
+      </c>
+      <c r="P37" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>49</v>
+      </c>
+      <c r="S37" t="s">
+        <v>74</v>
+      </c>
+      <c r="T37" t="s">
+        <v>95</v>
+      </c>
+      <c r="W37" t="s">
+        <v>95</v>
+      </c>
+      <c r="CA37" t="s">
+        <v>95</v>
+      </c>
+      <c r="CD37" t="s">
+        <v>95</v>
+      </c>
+      <c r="CN37" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/notebooks/COQ4/input/COQ4_COQ10D7_individuals.xlsx
+++ b/notebooks/COQ4/input/COQ4_COQ10D7_individuals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11018"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/COQ4/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC4BC60-B75C-D64C-A38D-26E17939A2C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D328882-DEBE-5744-B291-1214BE3CECF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4500" yWindow="3880" windowWidth="32080" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2840" windowWidth="30240" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1061,13 +1061,13 @@
     <t>Hyperglycemia</t>
   </si>
   <si>
-    <t>‚∑</t>
-  </si>
-  <si>
     <t>Unsteady gait</t>
   </si>
   <si>
     <t>HP:0002317</t>
+  </si>
+  <si>
+    <t>HP:0003074</t>
   </si>
 </sst>
 </file>
@@ -1139,7 +1139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1151,7 +1151,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1458,8 +1457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CS37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AS2" workbookViewId="0">
-      <selection activeCell="AS30" sqref="A30:XFD30"/>
+    <sheetView tabSelected="1" topLeftCell="CH1" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1648,7 +1647,7 @@
         <v>274</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="BI1" s="1" t="s">
         <v>26</v>
@@ -1833,7 +1832,7 @@
         <v>53</v>
       </c>
       <c r="X2" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Y2" t="s">
         <v>247</v>
@@ -1941,7 +1940,7 @@
         <v>275</v>
       </c>
       <c r="BH2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="BI2" t="s">
         <v>59</v>
@@ -4680,119 +4679,119 @@
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:95" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
+    <row r="30" spans="1:95" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>270</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" t="s">
         <v>271</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" t="s">
         <v>272</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" t="s">
         <v>41</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F30" t="s">
         <v>42</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="G30" t="s">
         <v>43</v>
       </c>
-      <c r="H30" s="5" t="s">
+      <c r="H30" t="s">
         <v>44</v>
       </c>
-      <c r="I30" s="5" t="s">
+      <c r="I30" t="s">
         <v>45</v>
       </c>
-      <c r="J30" s="5" t="s">
+      <c r="J30" t="s">
         <v>291</v>
       </c>
-      <c r="K30" s="5" t="s">
+      <c r="K30" t="s">
         <v>291</v>
       </c>
-      <c r="L30" s="5" t="s">
+      <c r="L30" t="s">
         <v>292</v>
       </c>
-      <c r="M30" s="5" t="s">
+      <c r="M30" t="s">
         <v>177</v>
       </c>
-      <c r="N30" s="5" t="s">
+      <c r="N30" t="s">
         <v>273</v>
       </c>
-      <c r="O30" s="5" t="s">
+      <c r="O30" t="s">
         <v>108</v>
       </c>
-      <c r="P30" s="5" t="s">
+      <c r="P30" t="s">
         <v>82</v>
       </c>
-      <c r="Q30" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="S30" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="AI30" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK30" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="AL30" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="AM30" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="AN30" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="AQ30" s="5" t="s">
+      <c r="Q30" t="s">
+        <v>49</v>
+      </c>
+      <c r="S30" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK30" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>95</v>
+      </c>
+      <c r="AM30" t="s">
+        <v>87</v>
+      </c>
+      <c r="AN30" t="s">
+        <v>87</v>
+      </c>
+      <c r="AQ30" t="s">
         <v>295</v>
       </c>
-      <c r="AR30" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="AS30" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="BA30" s="5" t="s">
+      <c r="AR30" t="s">
+        <v>87</v>
+      </c>
+      <c r="AS30" t="s">
+        <v>95</v>
+      </c>
+      <c r="BA30" t="s">
         <v>118</v>
       </c>
-      <c r="BH30" s="5" t="s">
+      <c r="BH30" t="s">
         <v>177</v>
       </c>
-      <c r="BI30" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="BJ30" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="BK30" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="BM30" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="BN30" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="BO30" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="BP30" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="BR30" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="BT30" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="BU30" s="5" t="s">
+      <c r="BI30" t="s">
+        <v>95</v>
+      </c>
+      <c r="BJ30" t="s">
+        <v>95</v>
+      </c>
+      <c r="BK30" t="s">
+        <v>95</v>
+      </c>
+      <c r="BM30" t="s">
+        <v>95</v>
+      </c>
+      <c r="BN30" t="s">
+        <v>87</v>
+      </c>
+      <c r="BO30" t="s">
+        <v>95</v>
+      </c>
+      <c r="BP30" t="s">
+        <v>95</v>
+      </c>
+      <c r="BR30" t="s">
+        <v>95</v>
+      </c>
+      <c r="BT30" t="s">
+        <v>87</v>
+      </c>
+      <c r="BU30" t="s">
         <v>276</v>
       </c>
-      <c r="CO30" s="5" t="s">
+      <c r="CO30" t="s">
         <v>95</v>
       </c>
     </row>
